--- a/Team-Data/2013-14/11-19-2013-14.xlsx
+++ b/Team-Data/2013-14/11-19-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,91 +733,91 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.545</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>38.5</v>
+        <v>39.1</v>
       </c>
       <c r="J2" t="n">
-        <v>81.3</v>
+        <v>82</v>
       </c>
       <c r="K2" t="n">
-        <v>0.474</v>
+        <v>0.477</v>
       </c>
       <c r="L2" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.367</v>
+        <v>0.358</v>
       </c>
       <c r="O2" t="n">
-        <v>17.5</v>
+        <v>18.2</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R2" t="n">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="S2" t="n">
-        <v>32.7</v>
+        <v>33.4</v>
       </c>
       <c r="T2" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U2" t="n">
-        <v>25.9</v>
+        <v>26.3</v>
       </c>
       <c r="V2" t="n">
-        <v>14.7</v>
+        <v>13.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y2" t="n">
         <v>3.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.6</v>
+        <v>22.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.2</v>
+        <v>104.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -759,67 +826,67 @@
         <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN2" t="n">
         <v>13</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>11</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -848,94 +915,94 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333</v>
+        <v>0.364</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="J3" t="n">
-        <v>82.3</v>
+        <v>80.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.439</v>
+        <v>0.452</v>
       </c>
       <c r="L3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.321</v>
+        <v>0.317</v>
       </c>
       <c r="O3" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P3" t="n">
         <v>20.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.764</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="S3" t="n">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
       <c r="T3" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U3" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="V3" t="n">
-        <v>16.9</v>
+        <v>17.4</v>
       </c>
       <c r="W3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="X3" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-5.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>14</v>
@@ -944,16 +1011,16 @@
         <v>20</v>
       </c>
       <c r="AJ3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
         <v>27</v>
@@ -965,43 +1032,43 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AS3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU3" t="n">
         <v>28</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
         <v>15</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -1108,46 +1175,46 @@
         <v>-5.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN4" t="n">
         <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP4" t="n">
         <v>5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
         <v>17</v>
@@ -1156,19 +1223,19 @@
         <v>16</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW4" t="n">
         <v>18</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>5</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>14</v>
@@ -1329,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>16</v>
@@ -1353,10 +1420,10 @@
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
@@ -1365,7 +1432,7 @@
         <v>30</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1493,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>27</v>
@@ -1526,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW6" t="n">
         <v>24</v>
@@ -1538,13 +1605,13 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
         <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -1654,25 +1721,25 @@
         <v>-7</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK7" t="n">
         <v>29</v>
@@ -1687,22 +1754,22 @@
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>25</v>
       </c>
       <c r="AQ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR7" t="n">
         <v>12</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>11</v>
       </c>
       <c r="AS7" t="n">
         <v>18</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU7" t="n">
         <v>26</v>
@@ -1714,13 +1781,13 @@
         <v>7</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>14</v>
@@ -1866,10 +1933,10 @@
         <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
@@ -1878,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="AR8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS8" t="n">
         <v>18</v>
@@ -1902,10 +1969,10 @@
         <v>6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2039,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>14</v>
@@ -2054,16 +2121,16 @@
         <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -2090,7 +2157,7 @@
         <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -2122,106 +2189,106 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="J10" t="n">
-        <v>84.09999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.453</v>
+        <v>0.449</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.289</v>
+        <v>0.281</v>
       </c>
       <c r="O10" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P10" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.694</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R10" t="n">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="S10" t="n">
         <v>27.1</v>
       </c>
       <c r="T10" t="n">
-        <v>41.1</v>
+        <v>41.6</v>
       </c>
       <c r="U10" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y10" t="n">
         <v>4.8</v>
       </c>
-      <c r="Y10" t="n">
-        <v>4.6</v>
-      </c>
       <c r="Z10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA10" t="n">
         <v>21.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2251,28 +2318,28 @@
         <v>23</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="n">
         <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ10" t="n">
         <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>4</v>
@@ -2397,7 +2464,7 @@
         <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
         <v>23</v>
@@ -2418,7 +2485,7 @@
         <v>26</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
         <v>21</v>
@@ -2433,13 +2500,13 @@
         <v>13</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV11" t="n">
         <v>29</v>
       </c>
       <c r="AW11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
         <v>7</v>
@@ -2454,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -2486,106 +2553,106 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.636</v>
       </c>
       <c r="H12" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.5</v>
       </c>
       <c r="J12" t="n">
-        <v>77.40000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.477</v>
+        <v>0.469</v>
       </c>
       <c r="L12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>26.1</v>
+        <v>26.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.335</v>
+        <v>0.329</v>
       </c>
       <c r="O12" t="n">
-        <v>26.3</v>
+        <v>27</v>
       </c>
       <c r="P12" t="n">
-        <v>37.5</v>
+        <v>38.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7</v>
+        <v>0.697</v>
       </c>
       <c r="R12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="S12" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="T12" t="n">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="U12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V12" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="W12" t="n">
         <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>28.8</v>
+        <v>29.6</v>
       </c>
       <c r="AB12" t="n">
         <v>108.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2603,10 +2670,10 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AS12" t="n">
         <v>1</v>
@@ -2615,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="AU12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2627,10 +2694,10 @@
         <v>3</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2764,7 +2831,7 @@
         <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2779,16 +2846,16 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP13" t="n">
         <v>16</v>
       </c>
       <c r="AQ13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS13" t="n">
         <v>8</v>
@@ -2800,7 +2867,7 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>3.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>8</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
         <v>14</v>
@@ -2952,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
         <v>6</v>
@@ -2961,13 +3028,13 @@
         <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>6</v>
@@ -2982,13 +3049,13 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW14" t="n">
         <v>8</v>
       </c>
       <c r="AX14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3183,7 @@
         <v>14</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG15" t="n">
         <v>16</v>
@@ -3128,16 +3195,16 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>2</v>
       </c>
       <c r="AM15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN15" t="n">
         <v>6</v>
@@ -3149,10 +3216,10 @@
         <v>27</v>
       </c>
       <c r="AQ15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
@@ -3164,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="AV15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3173,7 +3240,7 @@
         <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>18</v>
@@ -3185,7 +3252,7 @@
         <v>16</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>-1.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
         <v>11</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP16" t="n">
         <v>20</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>22</v>
       </c>
       <c r="AQ16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -3396,55 +3463,55 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0.727</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="J17" t="n">
-        <v>74.7</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.523</v>
+        <v>0.525</v>
       </c>
       <c r="L17" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.441</v>
+        <v>0.438</v>
       </c>
       <c r="O17" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>26.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.734</v>
+        <v>0.741</v>
       </c>
       <c r="R17" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="S17" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="U17" t="n">
         <v>26</v>
@@ -3453,43 +3520,43 @@
         <v>15.6</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="X17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
         <v>2.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>14</v>
       </c>
       <c r="AI17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3510,28 +3577,28 @@
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>15</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
         <v>5</v>
@@ -3549,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="BC17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
         <v>14</v>
@@ -3680,7 +3747,7 @@
         <v>27</v>
       </c>
       <c r="AL18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
         <v>22</v>
@@ -3689,7 +3756,7 @@
         <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>28</v>
@@ -3698,13 +3765,13 @@
         <v>4</v>
       </c>
       <c r="AR18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU18" t="n">
         <v>25</v>
@@ -3716,16 +3783,16 @@
         <v>20</v>
       </c>
       <c r="AX18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
         <v>16</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -3760,97 +3827,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>0.583</v>
+        <v>0.636</v>
       </c>
       <c r="H19" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="J19" t="n">
-        <v>89.2</v>
+        <v>89.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O19" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="P19" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.806</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R19" t="n">
         <v>12.2</v>
       </c>
       <c r="S19" t="n">
-        <v>33.2</v>
+        <v>33.5</v>
       </c>
       <c r="T19" t="n">
-        <v>45.3</v>
+        <v>45.6</v>
       </c>
       <c r="U19" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="X19" t="n">
         <v>3.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>107.8</v>
+        <v>108.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH19" t="n">
         <v>11</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>13</v>
       </c>
       <c r="AI19" t="n">
         <v>5</v>
@@ -3859,52 +3926,52 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN19" t="n">
         <v>15</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>3</v>
       </c>
       <c r="AR19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU19" t="n">
         <v>4</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX19" t="n">
         <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA19" t="n">
         <v>8</v>
@@ -3913,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="BC19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>18</v>
@@ -4035,16 +4102,16 @@
         <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>30</v>
@@ -4053,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
@@ -4062,13 +4129,13 @@
         <v>6</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS20" t="n">
         <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
         <v>13</v>
@@ -4077,16 +4144,16 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX20" t="n">
         <v>2</v>
       </c>
       <c r="AY20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3</v>
+        <v>0.333</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>84.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K21" t="n">
         <v>0.424</v>
       </c>
       <c r="L21" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M21" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.328</v>
+        <v>0.336</v>
       </c>
       <c r="O21" t="n">
         <v>13.8</v>
@@ -4163,55 +4230,55 @@
         <v>17.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R21" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S21" t="n">
-        <v>27.2</v>
+        <v>27.4</v>
       </c>
       <c r="T21" t="n">
-        <v>38.4</v>
+        <v>38.8</v>
       </c>
       <c r="U21" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="V21" t="n">
         <v>13.1</v>
       </c>
       <c r="W21" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X21" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="AB21" t="n">
-        <v>93.5</v>
+        <v>94.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH21" t="n">
         <v>14</v>
@@ -4220,19 +4287,19 @@
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
         <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,10 +4308,10 @@
         <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4256,25 +4323,25 @@
         <v>23</v>
       </c>
       <c r="AV21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW21" t="n">
         <v>13</v>
       </c>
       <c r="AX21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>9</v>
       </c>
       <c r="AZ21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA21" t="n">
         <v>28</v>
       </c>
       <c r="BB21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -4384,28 +4451,28 @@
         <v>2.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
         <v>4</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ22" t="n">
         <v>17</v>
       </c>
       <c r="AK22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
         <v>22</v>
@@ -4456,7 +4523,7 @@
         <v>10</v>
       </c>
       <c r="BB22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>18</v>
@@ -4578,10 +4645,10 @@
         <v>18</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
@@ -4602,19 +4669,19 @@
         <v>25</v>
       </c>
       <c r="AP23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ23" t="n">
         <v>22</v>
       </c>
       <c r="AR23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS23" t="n">
         <v>4</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU23" t="n">
         <v>16</v>
@@ -4626,7 +4693,7 @@
         <v>21</v>
       </c>
       <c r="AX23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY23" t="n">
         <v>28</v>
@@ -4635,10 +4702,10 @@
         <v>17</v>
       </c>
       <c r="BA23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -4754,13 +4821,13 @@
         <v>14</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,16 +4848,16 @@
         <v>20</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
         <v>14</v>
       </c>
       <c r="AQ24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS24" t="n">
         <v>9</v>
@@ -4802,10 +4869,10 @@
         <v>11</v>
       </c>
       <c r="AV24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
@@ -4820,7 +4887,7 @@
         <v>20</v>
       </c>
       <c r="BB24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC24" t="n">
         <v>27</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -4852,94 +4919,94 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="H25" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I25" t="n">
         <v>37.3</v>
       </c>
       <c r="J25" t="n">
-        <v>81.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L25" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="N25" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O25" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="P25" t="n">
-        <v>21.6</v>
+        <v>20.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.755</v>
+        <v>0.761</v>
       </c>
       <c r="R25" t="n">
-        <v>9.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="S25" t="n">
-        <v>32.5</v>
+        <v>33.3</v>
       </c>
       <c r="T25" t="n">
-        <v>42.2</v>
+        <v>43.4</v>
       </c>
       <c r="U25" t="n">
-        <v>18.4</v>
+        <v>17.9</v>
       </c>
       <c r="V25" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="W25" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>99.3</v>
+        <v>98.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>7</v>
@@ -4954,31 +5021,31 @@
         <v>11</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN25" t="n">
         <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AP25" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
@@ -4987,25 +5054,25 @@
         <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BB25" t="n">
         <v>17</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5130,25 +5197,25 @@
         <v>4</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
         <v>9</v>
       </c>
       <c r="AL26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN26" t="n">
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
         <v>10</v>
@@ -5157,7 +5224,7 @@
         <v>7</v>
       </c>
       <c r="AS26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT26" t="n">
         <v>8</v>
@@ -5175,13 +5242,13 @@
         <v>24</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3</v>
+        <v>0.222</v>
       </c>
       <c r="H27" t="n">
         <v>48</v>
       </c>
       <c r="I27" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="J27" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.423</v>
+        <v>0.418</v>
       </c>
       <c r="L27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M27" t="n">
         <v>22.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.323</v>
+        <v>0.318</v>
       </c>
       <c r="O27" t="n">
-        <v>16.6</v>
+        <v>16.1</v>
       </c>
       <c r="P27" t="n">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.776</v>
+        <v>0.78</v>
       </c>
       <c r="R27" t="n">
-        <v>11.2</v>
+        <v>10.8</v>
       </c>
       <c r="S27" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="T27" t="n">
-        <v>40.3</v>
+        <v>39.4</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
       <c r="W27" t="n">
         <v>8</v>
@@ -5279,43 +5346,43 @@
         <v>3.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>94.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.1</v>
+        <v>-4.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
         <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
@@ -5324,28 +5391,28 @@
         <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV27" t="n">
         <v>1</v>
@@ -5357,20 +5424,20 @@
         <v>30</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>26</v>
+      </c>
+      <c r="BC27" t="n">
         <v>24</v>
       </c>
-      <c r="BA27" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>23</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>21</v>
-      </c>
       <c r="BD27" t="n">
         <v>10</v>
       </c>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
@@ -5527,10 +5594,10 @@
         <v>12</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW28" t="n">
         <v>22</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -5658,28 +5725,28 @@
         <v>-0.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>18</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL29" t="n">
         <v>21</v>
@@ -5694,13 +5761,13 @@
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS29" t="n">
         <v>20</v>
@@ -5712,16 +5779,16 @@
         <v>30</v>
       </c>
       <c r="AV29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW29" t="n">
         <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5946,7 @@
         <v>12</v>
       </c>
       <c r="AQ30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR30" t="n">
         <v>4</v>
@@ -5891,7 +5958,7 @@
         <v>19</v>
       </c>
       <c r="AU30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV30" t="n">
         <v>28</v>
@@ -5900,10 +5967,10 @@
         <v>19</v>
       </c>
       <c r="AX30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
@@ -5944,94 +6011,94 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>0.222</v>
       </c>
       <c r="H31" t="n">
-        <v>49.5</v>
+        <v>49.7</v>
       </c>
       <c r="I31" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="J31" t="n">
-        <v>87.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.433</v>
+        <v>0.428</v>
       </c>
       <c r="L31" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="M31" t="n">
-        <v>24.8</v>
+        <v>25.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.395</v>
+        <v>0.391</v>
       </c>
       <c r="O31" t="n">
         <v>15</v>
       </c>
       <c r="P31" t="n">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.714</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R31" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="T31" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U31" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="V31" t="n">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="W31" t="n">
         <v>9.6</v>
       </c>
       <c r="X31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.2</v>
+        <v>19.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.7</v>
+        <v>-4.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
@@ -6040,64 +6107,64 @@
         <v>14</v>
       </c>
       <c r="AJ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS31" t="n">
         <v>23</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>22</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AW31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-19-2013-14</t>
+          <t>2013-11-19</t>
         </is>
       </c>
     </row>
